--- a/Data_Rasio_Emisi.xlsx
+++ b/Data_Rasio_Emisi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seagate\Documents\01. BRIN\2025\DLH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751705B-2848-4B4A-981E-872135050A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF892508-254E-4CCC-B7AB-315038EA05CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +454,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -881,7 +881,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B104" sqref="B104:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,8 +922,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="10">
+        <f t="shared" ref="A3:A66" si="0">2025-B3</f>
+        <v>35</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1990</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -932,8 +937,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1990</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -943,7 +953,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
-        <f t="shared" ref="A5" si="0">2025-B5</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B5" s="10">
@@ -957,8 +967,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1991</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -967,8 +982,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1991</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -978,7 +998,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
-        <f t="shared" ref="A8" si="1">2025-B8</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B8" s="10">
@@ -992,8 +1012,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1992</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1027,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1992</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1043,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
-        <f t="shared" ref="A11" si="2">2025-B11</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B11" s="10">
@@ -1027,8 +1057,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1993</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1037,8 +1072,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1993</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1088,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
-        <f t="shared" ref="A14" si="3">2025-B14</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B14" s="10">
@@ -1062,8 +1102,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1994</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1117,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1994</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1133,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
-        <f t="shared" ref="A17" si="4">2025-B17</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B17" s="10">
@@ -1097,8 +1147,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1995</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1162,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1995</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1118,7 +1178,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
-        <f t="shared" ref="A20" si="5">2025-B20</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B20" s="10">
@@ -1132,8 +1192,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1996</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1207,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1996</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1223,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
-        <f t="shared" ref="A23" si="6">2025-B23</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B23" s="10">
@@ -1167,8 +1237,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1997</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1177,8 +1252,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1997</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1268,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <f t="shared" ref="A26" si="7">2025-B26</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B26" s="10">
@@ -1202,8 +1282,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1998</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1212,8 +1297,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1998</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1313,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <f t="shared" ref="A29" si="8">2025-B29</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="10">
@@ -1237,8 +1327,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1999</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1247,8 +1342,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1999</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1258,7 +1358,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
-        <f t="shared" ref="A32" si="9">2025-B32</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B32" s="10">
@@ -1272,8 +1372,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="10">
+        <v>2000</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1282,8 +1387,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2000</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1293,7 +1403,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
-        <f t="shared" ref="A35" si="10">2025-B35</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B35" s="10">
@@ -1307,8 +1417,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B36" s="10">
+        <v>2001</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1317,8 +1432,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B37" s="10">
+        <v>2001</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1328,7 +1448,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
-        <f t="shared" ref="A38" si="11">2025-B38</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B38" s="10">
@@ -1342,8 +1462,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2002</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1477,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B40" s="10">
+        <v>2002</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1363,7 +1493,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
-        <f t="shared" ref="A41" si="12">2025-B41</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B41" s="10">
@@ -1377,8 +1507,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="10">
+        <v>2003</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1522,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B43" s="10">
+        <v>2003</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1538,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
-        <f t="shared" ref="A44" si="13">2025-B44</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B44" s="10">
@@ -1412,8 +1552,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2004</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1567,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B46" s="10">
+        <v>2004</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1433,7 +1583,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
-        <f t="shared" ref="A47" si="14">2025-B47</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B47" s="10">
@@ -1447,8 +1597,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B48" s="10">
+        <v>2005</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1457,8 +1612,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2005</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1628,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
-        <f t="shared" ref="A50" si="15">2025-B50</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B50" s="10">
@@ -1482,8 +1642,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B51" s="10">
+        <v>2006</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
@@ -1492,8 +1657,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2006</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
@@ -1503,7 +1673,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
-        <f t="shared" ref="A53" si="16">2025-B53</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B53" s="10">
@@ -1517,8 +1687,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B54" s="10">
+        <v>2007</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1702,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
+      <c r="A55" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B55" s="10">
+        <v>2007</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1718,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
-        <f t="shared" ref="A56" si="17">2025-B56</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B56" s="10">
@@ -1552,8 +1732,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B57" s="10">
+        <v>2008</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1747,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
+      <c r="A58" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B58" s="10">
+        <v>2008</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1763,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
-        <f t="shared" ref="A59" si="18">2025-B59</f>
+        <f>2025-B59</f>
         <v>16</v>
       </c>
       <c r="B59" s="10">
@@ -1587,8 +1777,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B60" s="10">
+        <v>2009</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
@@ -1597,8 +1792,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
+      <c r="A61" s="10">
+        <f>2025-B61</f>
+        <v>16</v>
+      </c>
+      <c r="B61" s="10">
+        <v>2009</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1808,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
-        <f t="shared" ref="A62" si="19">2025-B62</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B62" s="10">
@@ -1622,8 +1822,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B63" s="10">
+        <v>2010</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
@@ -1632,8 +1837,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
+      <c r="A64" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B64" s="10">
+        <v>2010</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
@@ -1643,7 +1853,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
-        <f t="shared" ref="A65" si="20">2025-B65</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B65" s="10">
@@ -1657,8 +1867,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
+      <c r="A66" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B66" s="10">
+        <v>2011</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
@@ -1667,8 +1882,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
+      <c r="A67" s="10">
+        <f t="shared" ref="A67:A106" si="1">2025-B67</f>
+        <v>14</v>
+      </c>
+      <c r="B67" s="10">
+        <v>2011</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1898,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
-        <f t="shared" ref="A68" si="21">2025-B68</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B68" s="10">
@@ -1692,8 +1912,13 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
+      <c r="A69" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B69" s="10">
+        <v>2012</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1927,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
+      <c r="A70" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B70" s="10">
+        <v>2012</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1943,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
-        <f t="shared" ref="A71" si="22">2025-B71</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B71" s="10">
@@ -1727,8 +1957,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
+      <c r="A72" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B72" s="10">
+        <v>2013</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1972,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B73" s="10">
+        <v>2013</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +1988,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="10">
-        <f t="shared" ref="A74" si="23">2025-B74</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B74" s="10">
@@ -1762,8 +2002,13 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
+      <c r="A75" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B75" s="10">
+        <v>2014</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
       </c>
@@ -1772,8 +2017,13 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="A76" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B76" s="10">
+        <v>2014</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
@@ -1783,7 +2033,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
-        <f t="shared" ref="A77" si="24">2025-B77</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B77" s="10">
@@ -1797,8 +2047,13 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
+      <c r="A78" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B78" s="10">
+        <v>2015</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
@@ -1807,8 +2062,13 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B79" s="10">
+        <v>2015</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +2078,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
-        <f t="shared" ref="A80" si="25">2025-B80</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B80" s="10">
@@ -1832,8 +2092,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
+      <c r="A81" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B81" s="10">
+        <v>2016</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +2107,13 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
+      <c r="A82" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B82" s="10">
+        <v>2016</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +2123,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="10">
-        <f t="shared" ref="A83" si="26">2025-B83</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B83" s="10">
@@ -1867,8 +2137,13 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B84" s="10">
+        <v>2017</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +2152,13 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
+      <c r="A85" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B85" s="10">
+        <v>2017</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>4</v>
       </c>
@@ -1888,7 +2168,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="10">
-        <f t="shared" ref="A86" si="27">2025-B86</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B86" s="10">
@@ -1902,8 +2182,13 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B87" s="10">
+        <v>2018</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
@@ -1912,8 +2197,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
+      <c r="A88" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B88" s="10">
+        <v>2018</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +2213,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="10">
-        <f t="shared" ref="A89" si="28">2025-B89</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B89" s="10">
@@ -1937,8 +2227,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
+      <c r="A90" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B90" s="10">
+        <v>2019</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
@@ -1947,8 +2242,13 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
+      <c r="A91" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B91" s="10">
+        <v>2019</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +2258,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="10">
-        <f t="shared" ref="A92" si="29">2025-B92</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B92" s="10">
@@ -1972,8 +2272,13 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
+      <c r="A93" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B93" s="10">
+        <v>2020</v>
+      </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
@@ -1982,8 +2287,13 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
+      <c r="A94" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B94" s="10">
+        <v>2020</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +2303,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="10">
-        <f t="shared" ref="A95" si="30">2025-B95</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B95" s="10">
@@ -2007,8 +2317,13 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
+      <c r="A96" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B96" s="10">
+        <v>2021</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2332,13 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
+      <c r="A97" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B97" s="10">
+        <v>2021</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>4</v>
       </c>
@@ -2028,7 +2348,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
-        <f t="shared" ref="A98" si="31">2025-B98</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B98" s="10">
@@ -2042,8 +2362,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
+      <c r="A99" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B99" s="10">
+        <v>2022</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
@@ -2052,8 +2377,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
+      <c r="A100" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B100" s="10">
+        <v>2022</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2393,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="10">
-        <f t="shared" ref="A101" si="32">2025-B101</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B101" s="10">
@@ -2077,8 +2407,13 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
+      <c r="A102" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B102" s="10">
+        <v>2023</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
       </c>
@@ -2087,8 +2422,13 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
+      <c r="A103" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B103" s="10">
+        <v>2023</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +2438,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="10">
-        <f t="shared" ref="A104" si="33">2025-B104</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B104" s="10">
@@ -2112,8 +2452,13 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
+      <c r="A105" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B105" s="10">
+        <v>2024</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2467,13 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
+      <c r="A106" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B106" s="10">
+        <v>2024</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
@@ -2132,78 +2482,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2213,7 +2491,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B165" sqref="B165:B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2254,8 +2532,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="10">
+        <f t="shared" ref="A3:A66" si="0">2025-B3</f>
+        <v>35</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1990</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2264,8 +2547,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1990</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2274,8 +2562,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1990</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2578,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
-        <f>2025-B6</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B6" s="10">
@@ -2299,8 +2592,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1991</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2309,8 +2607,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1991</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2319,8 +2622,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1991</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2329,8 +2637,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1991</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2653,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
-        <f>2025-B11</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B11" s="10">
@@ -2354,8 +2667,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1992</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2364,8 +2682,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1992</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2374,8 +2697,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1992</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2385,7 +2713,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
-        <f>2025-B15</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B15" s="10">
@@ -2399,8 +2727,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1993</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2409,8 +2742,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1993</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2419,8 +2757,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1993</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2430,7 +2773,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
-        <f>2025-B19</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B19" s="10">
@@ -2444,8 +2787,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1994</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2454,8 +2802,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1994</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2464,8 +2817,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1994</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2475,7 +2833,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
-        <f>2025-B23</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B23" s="10">
@@ -2489,8 +2847,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1995</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2499,8 +2862,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1995</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2509,8 +2877,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1995</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2520,7 +2893,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
-        <f>2025-B27</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B27" s="10">
@@ -2534,8 +2907,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1996</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
@@ -2544,8 +2922,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1996</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2554,8 +2937,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1996</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
@@ -2565,7 +2953,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
-        <f>2025-B31</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="10">
@@ -2579,8 +2967,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1997</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
@@ -2589,8 +2982,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1997</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2599,8 +2997,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1997</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2609,8 +3012,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1997</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2620,7 +3028,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <f>2025-B36</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B36" s="10">
@@ -2634,8 +3042,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1998</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
@@ -2644,8 +3057,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1998</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
@@ -2654,8 +3072,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1998</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
@@ -2664,8 +3087,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B40" s="10">
+        <v>1998</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
@@ -2675,7 +3103,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
-        <f>2025-B41</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B41" s="10">
@@ -2689,8 +3117,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B42" s="10">
+        <v>1999</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2699,8 +3132,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B43" s="10">
+        <v>1999</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2709,8 +3147,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B44" s="10">
+        <v>1999</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2720,7 +3163,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
-        <f>2025-B45</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B45" s="10">
@@ -2734,8 +3177,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B46" s="10">
+        <v>2000</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2744,8 +3192,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2000</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
@@ -2754,8 +3207,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B48" s="10">
+        <v>2000</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
@@ -2764,8 +3222,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2000</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
@@ -2775,7 +3238,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
-        <f>2025-B50</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B50" s="10">
@@ -2789,8 +3252,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B51" s="10">
+        <v>2001</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2799,8 +3267,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2001</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
@@ -2809,8 +3282,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
+      <c r="A53" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2001</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2819,8 +3297,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B54" s="10">
+        <v>2001</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
@@ -2830,7 +3313,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
-        <f>2025-B55</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B55" s="10">
@@ -2844,8 +3327,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B56" s="10">
+        <v>2002</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2854,8 +3342,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B57" s="10">
+        <v>2002</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
@@ -2864,8 +3357,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
+      <c r="A58" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B58" s="10">
+        <v>2002</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
@@ -2874,8 +3372,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
+      <c r="A59" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B59" s="10">
+        <v>2002</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>6</v>
       </c>
@@ -2885,7 +3388,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
-        <f>2025-B60</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B60" s="10">
@@ -2899,8 +3402,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
+      <c r="A61" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B61" s="10">
+        <v>2003</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
@@ -2909,8 +3417,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
+      <c r="A62" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B62" s="10">
+        <v>2003</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
@@ -2919,8 +3432,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B63" s="10">
+        <v>2003</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
@@ -2929,8 +3447,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
+      <c r="A64" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B64" s="10">
+        <v>2003</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>6</v>
       </c>
@@ -2940,7 +3463,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
-        <f>2025-B65</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B65" s="10">
@@ -2954,8 +3477,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
+      <c r="A66" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B66" s="10">
+        <v>2004</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3492,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
+      <c r="A67" s="10">
+        <f t="shared" ref="A67:A130" si="1">2025-B67</f>
+        <v>21</v>
+      </c>
+      <c r="B67" s="10">
+        <v>2004</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>7</v>
       </c>
@@ -2974,8 +3507,13 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
+      <c r="A68" s="10">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B68" s="10">
+        <v>2004</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2984,8 +3522,13 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
+      <c r="A69" s="10">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B69" s="10">
+        <v>2004</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
@@ -2995,7 +3538,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
-        <f>2025-B70</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B70" s="10">
@@ -3009,8 +3552,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B71" s="10">
+        <v>2005</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
       </c>
@@ -3019,8 +3567,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
+      <c r="A72" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B72" s="10">
+        <v>2005</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
@@ -3029,8 +3582,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B73" s="10">
+        <v>2005</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
@@ -3039,8 +3597,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
+      <c r="A74" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B74" s="10">
+        <v>2005</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>6</v>
       </c>
@@ -3050,7 +3613,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
-        <f>2025-B75</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B75" s="10">
@@ -3064,8 +3627,13 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="A76" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B76" s="10">
+        <v>2006</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
@@ -3074,8 +3642,13 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
+      <c r="A77" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B77" s="10">
+        <v>2006</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>7</v>
       </c>
@@ -3084,8 +3657,13 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
+      <c r="A78" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B78" s="10">
+        <v>2006</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>5</v>
       </c>
@@ -3094,8 +3672,13 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B79" s="10">
+        <v>2006</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>6</v>
       </c>
@@ -3105,7 +3688,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
-        <f>2025-B80</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B80" s="10">
@@ -3119,8 +3702,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
+      <c r="A81" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B81" s="10">
+        <v>2007</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
@@ -3129,8 +3717,13 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
+      <c r="A82" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B82" s="10">
+        <v>2007</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>7</v>
       </c>
@@ -3139,8 +3732,13 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
+      <c r="A83" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B83" s="10">
+        <v>2007</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
@@ -3149,8 +3747,13 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B84" s="10">
+        <v>2007</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>6</v>
       </c>
@@ -3160,7 +3763,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="10">
-        <f>2025-B85</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B85" s="10">
@@ -3174,8 +3777,13 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
+      <c r="A86" s="10">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B86" s="10">
+        <v>2008</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
@@ -3184,8 +3792,13 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="10">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B87" s="10">
+        <v>2008</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
       </c>
@@ -3194,8 +3807,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
+      <c r="A88" s="10">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B88" s="10">
+        <v>2008</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
       </c>
@@ -3204,8 +3822,13 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
+      <c r="A89" s="10">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B89" s="10">
+        <v>2008</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>6</v>
       </c>
@@ -3215,7 +3838,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="10">
-        <f>2025-B90</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B90" s="10">
@@ -3229,8 +3852,13 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
+      <c r="A91" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B91" s="10">
+        <v>2009</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>4</v>
       </c>
@@ -3239,8 +3867,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
+      <c r="A92" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B92" s="10">
+        <v>2009</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
       </c>
@@ -3249,8 +3882,13 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
+      <c r="A93" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B93" s="10">
+        <v>2009</v>
+      </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
@@ -3259,8 +3897,13 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
+      <c r="A94" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B94" s="10">
+        <v>2009</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>6</v>
       </c>
@@ -3270,7 +3913,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="10">
-        <f>2025-B95</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B95" s="10">
@@ -3284,8 +3927,13 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
+      <c r="A96" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B96" s="10">
+        <v>2010</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
@@ -3294,8 +3942,13 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
+      <c r="A97" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B97" s="10">
+        <v>2010</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>7</v>
       </c>
@@ -3304,8 +3957,13 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
+      <c r="A98" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B98" s="10">
+        <v>2010</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
       </c>
@@ -3314,8 +3972,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
+      <c r="A99" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B99" s="10">
+        <v>2010</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>6</v>
       </c>
@@ -3325,7 +3988,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="10">
-        <f>2025-B100</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B100" s="10">
@@ -3339,8 +4002,13 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
+      <c r="A101" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B101" s="10">
+        <v>2011</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>4</v>
       </c>
@@ -3349,8 +4017,13 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
+      <c r="A102" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B102" s="10">
+        <v>2011</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>7</v>
       </c>
@@ -3359,8 +4032,13 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
+      <c r="A103" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B103" s="10">
+        <v>2011</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
@@ -3369,8 +4047,13 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
+      <c r="A104" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B104" s="10">
+        <v>2011</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>6</v>
       </c>
@@ -3380,7 +4063,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="10">
-        <f>2025-B105</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B105" s="10">
@@ -3394,8 +4077,13 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
+      <c r="A106" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B106" s="10">
+        <v>2012</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
@@ -3404,8 +4092,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
+      <c r="A107" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B107" s="10">
+        <v>2012</v>
+      </c>
       <c r="C107" s="1" t="s">
         <v>7</v>
       </c>
@@ -3414,8 +4107,13 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
+      <c r="A108" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B108" s="10">
+        <v>2012</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>5</v>
       </c>
@@ -3424,8 +4122,13 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
+      <c r="A109" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B109" s="10">
+        <v>2012</v>
+      </c>
       <c r="C109" s="1" t="s">
         <v>6</v>
       </c>
@@ -3435,7 +4138,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="10">
-        <f>2025-B110</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B110" s="10">
@@ -3449,8 +4152,13 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
+      <c r="A111" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B111" s="10">
+        <v>2013</v>
+      </c>
       <c r="C111" s="1" t="s">
         <v>4</v>
       </c>
@@ -3459,8 +4167,13 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
+      <c r="A112" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B112" s="10">
+        <v>2013</v>
+      </c>
       <c r="C112" s="1" t="s">
         <v>7</v>
       </c>
@@ -3469,8 +4182,13 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
+      <c r="A113" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B113" s="10">
+        <v>2013</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
@@ -3479,8 +4197,13 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
+      <c r="A114" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B114" s="10">
+        <v>2013</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>6</v>
       </c>
@@ -3490,7 +4213,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="10">
-        <f>2025-B115</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B115" s="10">
@@ -3504,8 +4227,13 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
+      <c r="A116" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B116" s="10">
+        <v>2014</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>4</v>
       </c>
@@ -3514,8 +4242,13 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
+      <c r="A117" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B117" s="10">
+        <v>2014</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>7</v>
       </c>
@@ -3524,8 +4257,13 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
+      <c r="A118" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B118" s="10">
+        <v>2014</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>5</v>
       </c>
@@ -3534,8 +4272,13 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
+      <c r="A119" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B119" s="10">
+        <v>2014</v>
+      </c>
       <c r="C119" s="1" t="s">
         <v>6</v>
       </c>
@@ -3545,7 +4288,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="10">
-        <f>2025-B120</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B120" s="10">
@@ -3559,8 +4302,13 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
+      <c r="A121" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B121" s="10">
+        <v>2015</v>
+      </c>
       <c r="C121" s="1" t="s">
         <v>4</v>
       </c>
@@ -3569,8 +4317,13 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
+      <c r="A122" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B122" s="10">
+        <v>2015</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>7</v>
       </c>
@@ -3579,8 +4332,13 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
+      <c r="A123" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B123" s="10">
+        <v>2015</v>
+      </c>
       <c r="C123" s="1" t="s">
         <v>5</v>
       </c>
@@ -3589,8 +4347,13 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
+      <c r="A124" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B124" s="10">
+        <v>2015</v>
+      </c>
       <c r="C124" s="1" t="s">
         <v>6</v>
       </c>
@@ -3600,7 +4363,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="10">
-        <f>2025-B125</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B125" s="10">
@@ -3614,8 +4377,13 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
+      <c r="A126" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B126" s="10">
+        <v>2016</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>4</v>
       </c>
@@ -3624,8 +4392,13 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
+      <c r="A127" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B127" s="10">
+        <v>2016</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>7</v>
       </c>
@@ -3634,8 +4407,13 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
+      <c r="A128" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B128" s="10">
+        <v>2016</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>5</v>
       </c>
@@ -3644,8 +4422,13 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
+      <c r="A129" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B129" s="10">
+        <v>2016</v>
+      </c>
       <c r="C129" s="1" t="s">
         <v>6</v>
       </c>
@@ -3655,7 +4438,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="10">
-        <f t="shared" ref="A130" si="0">2025-B130</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B130" s="10">
@@ -3669,8 +4452,13 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
+      <c r="A131" s="10">
+        <f t="shared" ref="A131:A169" si="2">2025-B131</f>
+        <v>8</v>
+      </c>
+      <c r="B131" s="10">
+        <v>2017</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>4</v>
       </c>
@@ -3679,8 +4467,13 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
+      <c r="A132" s="10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B132" s="10">
+        <v>2017</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>7</v>
       </c>
@@ -3689,8 +4482,13 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
+      <c r="A133" s="10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B133" s="10">
+        <v>2017</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
@@ -3699,8 +4497,13 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
+      <c r="A134" s="10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B134" s="10">
+        <v>2017</v>
+      </c>
       <c r="C134" s="1" t="s">
         <v>6</v>
       </c>
@@ -3710,7 +4513,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="10">
-        <f t="shared" ref="A135" si="1">2025-B135</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B135" s="10">
@@ -3724,8 +4527,13 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
+      <c r="A136" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B136" s="10">
+        <v>2018</v>
+      </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
@@ -3734,8 +4542,13 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
+      <c r="A137" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B137" s="10">
+        <v>2018</v>
+      </c>
       <c r="C137" s="1" t="s">
         <v>7</v>
       </c>
@@ -3744,8 +4557,13 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
+      <c r="A138" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B138" s="10">
+        <v>2018</v>
+      </c>
       <c r="C138" s="1" t="s">
         <v>5</v>
       </c>
@@ -3754,8 +4572,13 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
+      <c r="A139" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B139" s="10">
+        <v>2018</v>
+      </c>
       <c r="C139" s="1" t="s">
         <v>6</v>
       </c>
@@ -3765,7 +4588,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="10">
-        <f t="shared" ref="A140" si="2">2025-B140</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B140" s="10">
@@ -3779,8 +4602,13 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
+      <c r="A141" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B141" s="10">
+        <v>2019</v>
+      </c>
       <c r="C141" s="1" t="s">
         <v>4</v>
       </c>
@@ -3789,8 +4617,13 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
+      <c r="A142" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B142" s="10">
+        <v>2019</v>
+      </c>
       <c r="C142" s="1" t="s">
         <v>7</v>
       </c>
@@ -3799,8 +4632,13 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
+      <c r="A143" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B143" s="10">
+        <v>2019</v>
+      </c>
       <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
@@ -3809,8 +4647,13 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
+      <c r="A144" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B144" s="10">
+        <v>2019</v>
+      </c>
       <c r="C144" s="1" t="s">
         <v>6</v>
       </c>
@@ -3820,7 +4663,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="10">
-        <f t="shared" ref="A145" si="3">2025-B145</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B145" s="10">
@@ -3834,8 +4677,13 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
+      <c r="A146" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B146" s="10">
+        <v>2020</v>
+      </c>
       <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
@@ -3844,8 +4692,13 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
+      <c r="A147" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B147" s="10">
+        <v>2020</v>
+      </c>
       <c r="C147" s="1" t="s">
         <v>7</v>
       </c>
@@ -3854,8 +4707,13 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
+      <c r="A148" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B148" s="10">
+        <v>2020</v>
+      </c>
       <c r="C148" s="1" t="s">
         <v>5</v>
       </c>
@@ -3864,8 +4722,13 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
+      <c r="A149" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B149" s="10">
+        <v>2020</v>
+      </c>
       <c r="C149" s="1" t="s">
         <v>6</v>
       </c>
@@ -3875,7 +4738,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="10">
-        <f t="shared" ref="A150" si="4">2025-B150</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B150" s="10">
@@ -3889,8 +4752,13 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
+      <c r="A151" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B151" s="10">
+        <v>2021</v>
+      </c>
       <c r="C151" s="1" t="s">
         <v>4</v>
       </c>
@@ -3899,8 +4767,13 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
+      <c r="A152" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B152" s="10">
+        <v>2021</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>7</v>
       </c>
@@ -3909,8 +4782,13 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
+      <c r="A153" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B153" s="10">
+        <v>2021</v>
+      </c>
       <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
@@ -3919,8 +4797,13 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
+      <c r="A154" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B154" s="10">
+        <v>2021</v>
+      </c>
       <c r="C154" s="1" t="s">
         <v>6</v>
       </c>
@@ -3930,7 +4813,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="10">
-        <f t="shared" ref="A155" si="5">2025-B155</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B155" s="10">
@@ -3944,8 +4827,13 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
+      <c r="A156" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B156" s="10">
+        <v>2022</v>
+      </c>
       <c r="C156" s="1" t="s">
         <v>4</v>
       </c>
@@ -3954,8 +4842,13 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
+      <c r="A157" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B157" s="10">
+        <v>2022</v>
+      </c>
       <c r="C157" s="1" t="s">
         <v>7</v>
       </c>
@@ -3964,8 +4857,13 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
+      <c r="A158" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B158" s="10">
+        <v>2022</v>
+      </c>
       <c r="C158" s="1" t="s">
         <v>5</v>
       </c>
@@ -3974,8 +4872,13 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
+      <c r="A159" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B159" s="10">
+        <v>2022</v>
+      </c>
       <c r="C159" s="1" t="s">
         <v>6</v>
       </c>
@@ -3985,7 +4888,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="10">
-        <f t="shared" ref="A160" si="6">2025-B160</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B160" s="10">
@@ -3999,8 +4902,13 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
+      <c r="A161" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B161" s="10">
+        <v>2023</v>
+      </c>
       <c r="C161" s="1" t="s">
         <v>4</v>
       </c>
@@ -4009,8 +4917,13 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
+      <c r="A162" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B162" s="10">
+        <v>2023</v>
+      </c>
       <c r="C162" s="1" t="s">
         <v>7</v>
       </c>
@@ -4019,8 +4932,13 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
+      <c r="A163" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B163" s="10">
+        <v>2023</v>
+      </c>
       <c r="C163" s="1" t="s">
         <v>5</v>
       </c>
@@ -4029,8 +4947,13 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
+      <c r="A164" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B164" s="10">
+        <v>2023</v>
+      </c>
       <c r="C164" s="1" t="s">
         <v>6</v>
       </c>
@@ -4040,7 +4963,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="10">
-        <f t="shared" ref="A165" si="7">2025-B165</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B165" s="10">
@@ -4054,8 +4977,13 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
+      <c r="A166" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B166" s="10">
+        <v>2024</v>
+      </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
@@ -4064,8 +4992,13 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
+      <c r="A167" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B167" s="10">
+        <v>2024</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>7</v>
       </c>
@@ -4074,8 +5007,13 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
+      <c r="A168" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B168" s="10">
+        <v>2024</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>5</v>
       </c>
@@ -4084,8 +5022,13 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
+      <c r="A169" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B169" s="10">
+        <v>2024</v>
+      </c>
       <c r="C169" s="1" t="s">
         <v>6</v>
       </c>
@@ -4094,78 +5037,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="B155:B159"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A165:A169"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>